--- a/artfynd/A 6682-2023.xlsx
+++ b/artfynd/A 6682-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107154845</v>
+        <v>107154797</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>481623.8090166943</v>
+        <v>481783.740327523</v>
       </c>
       <c r="R2" t="n">
-        <v>7064384.743846672</v>
+        <v>7064708.818915814</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +774,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107154815</v>
+        <v>107154799</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -840,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>481622.6215475723</v>
+        <v>481784.661438288</v>
       </c>
       <c r="R3" t="n">
-        <v>7064409.581523294</v>
+        <v>7064714.577312015</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -917,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107154814</v>
+        <v>107154798</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -965,10 +978,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>481657.1100660371</v>
+        <v>481835.0911046171</v>
       </c>
       <c r="R4" t="n">
-        <v>7064384.99368671</v>
+        <v>7064760.396137583</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,10 +1055,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107154806</v>
+        <v>107154845</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,38 +1071,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>481865.2215112759</v>
+        <v>481623.8090166943</v>
       </c>
       <c r="R5" t="n">
-        <v>7064595.733887075</v>
+        <v>7064384.743846672</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,11 +1141,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,7 +1167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107154797</v>
+        <v>107154815</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1211,10 +1215,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>481783.740327523</v>
+        <v>481622.6215475723</v>
       </c>
       <c r="R6" t="n">
-        <v>7064708.818915814</v>
+        <v>7064409.581523294</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,10 +1292,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107154844</v>
+        <v>107154814</v>
       </c>
       <c r="B7" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,34 +1308,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>481712.3995770328</v>
+        <v>481657.1100660371</v>
       </c>
       <c r="R7" t="n">
-        <v>7064348.756818086</v>
+        <v>7064384.99368671</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1374,6 +1386,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1400,10 +1417,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107154843</v>
+        <v>107154806</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1416,34 +1433,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>481761.5865975989</v>
+        <v>481865.2215112759</v>
       </c>
       <c r="R8" t="n">
-        <v>7064562.633718487</v>
+        <v>7064595.733887075</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,6 +1507,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1512,10 +1538,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107154804</v>
+        <v>107154844</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1528,42 +1554,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>481839.089652336</v>
+        <v>481712.3995770328</v>
       </c>
       <c r="R9" t="n">
-        <v>7064606.525106725</v>
+        <v>7064348.756818086</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1606,11 +1624,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1637,10 +1650,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107154810</v>
+        <v>107154843</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1653,38 +1666,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>481676.1574604929</v>
+        <v>481761.5865975989</v>
       </c>
       <c r="R10" t="n">
-        <v>7064377.345180032</v>
+        <v>7064562.633718487</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,11 +1736,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1758,7 +1762,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107154796</v>
+        <v>107154804</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1794,7 +1798,11 @@
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1802,10 +1810,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>481862.5085237547</v>
+        <v>481839.089652336</v>
       </c>
       <c r="R11" t="n">
-        <v>7064664.47236147</v>
+        <v>7064606.525106725</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1879,7 +1887,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107154799</v>
+        <v>107154810</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1915,11 +1923,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1927,10 +1931,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>481784.661438288</v>
+        <v>481676.1574604929</v>
       </c>
       <c r="R12" t="n">
-        <v>7064714.577312015</v>
+        <v>7064377.345180032</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2004,7 +2008,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107154798</v>
+        <v>107154796</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2040,11 +2044,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>481835.0911046171</v>
+        <v>481862.5085237547</v>
       </c>
       <c r="R13" t="n">
-        <v>7064760.396137583</v>
+        <v>7064664.47236147</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 6682-2023.xlsx
+++ b/artfynd/A 6682-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107154797</v>
+        <v>107154845</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,42 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>481783.740327523</v>
+        <v>481623.8090166943</v>
       </c>
       <c r="R2" t="n">
-        <v>7064708.818915814</v>
+        <v>7064384.743846672</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -805,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107154799</v>
+        <v>107154815</v>
       </c>
       <c r="B3" t="n">
         <v>56395</v>
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>481784.661438288</v>
+        <v>481622.6215475723</v>
       </c>
       <c r="R3" t="n">
-        <v>7064714.577312015</v>
+        <v>7064409.581523294</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -930,7 +917,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107154798</v>
+        <v>107154814</v>
       </c>
       <c r="B4" t="n">
         <v>56395</v>
@@ -978,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>481835.0911046171</v>
+        <v>481657.1100660371</v>
       </c>
       <c r="R4" t="n">
-        <v>7064760.396137583</v>
+        <v>7064384.99368671</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1055,10 +1042,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107154845</v>
+        <v>107154806</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,34 +1058,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>481623.8090166943</v>
+        <v>481865.2215112759</v>
       </c>
       <c r="R5" t="n">
-        <v>7064384.743846672</v>
+        <v>7064595.733887075</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1141,6 +1132,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1167,7 +1163,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107154815</v>
+        <v>107154797</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1215,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>481622.6215475723</v>
+        <v>481783.740327523</v>
       </c>
       <c r="R6" t="n">
-        <v>7064409.581523294</v>
+        <v>7064708.818915814</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1292,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107154814</v>
+        <v>107154844</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1308,42 +1304,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>481657.1100660371</v>
+        <v>481712.3995770328</v>
       </c>
       <c r="R7" t="n">
-        <v>7064384.99368671</v>
+        <v>7064348.756818086</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1386,11 +1374,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1417,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107154806</v>
+        <v>107154843</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1433,38 +1416,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>481865.2215112759</v>
+        <v>481761.5865975989</v>
       </c>
       <c r="R8" t="n">
-        <v>7064595.733887075</v>
+        <v>7064562.633718487</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1507,11 +1486,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1538,10 +1512,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107154844</v>
+        <v>107154804</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1554,34 +1528,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>481712.3995770328</v>
+        <v>481839.089652336</v>
       </c>
       <c r="R9" t="n">
-        <v>7064348.756818086</v>
+        <v>7064606.525106725</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1624,6 +1606,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1650,10 +1637,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107154843</v>
+        <v>107154810</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1666,34 +1653,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Åbodarna N Föllinge, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>481761.5865975989</v>
+        <v>481676.1574604929</v>
       </c>
       <c r="R10" t="n">
-        <v>7064562.633718487</v>
+        <v>7064377.345180032</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1736,6 +1727,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1762,7 +1758,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107154804</v>
+        <v>107154796</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1798,11 +1794,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1810,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>481839.089652336</v>
+        <v>481862.5085237547</v>
       </c>
       <c r="R11" t="n">
-        <v>7064606.525106725</v>
+        <v>7064664.47236147</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1887,7 +1879,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107154810</v>
+        <v>107154799</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1923,7 +1915,11 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1931,10 +1927,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>481676.1574604929</v>
+        <v>481784.661438288</v>
       </c>
       <c r="R12" t="n">
-        <v>7064377.345180032</v>
+        <v>7064714.577312015</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2008,7 +2004,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107154796</v>
+        <v>107154798</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2044,7 +2040,11 @@
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>481862.5085237547</v>
+        <v>481835.0911046171</v>
       </c>
       <c r="R13" t="n">
-        <v>7064664.47236147</v>
+        <v>7064760.396137583</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
